--- a/.vscode/ReportLayouts/Excel/Rep.70029.EfficiencyReportExcel.xlsx
+++ b/.vscode/ReportLayouts/Excel/Rep.70029.EfficiencyReportExcel.xlsx
@@ -1,55 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <x:workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rom IT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Radiant\SourceCode\WP-Report\.vscode\ReportLayouts\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB846C47-A03B-48B7-B5EA-20AC1FFB44E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Aggregated Metadata" sheetId="4" r:id="rId1"/>
-    <x:sheet name="Master Report" sheetId="6" r:id="rId2"/>
-    <x:sheet name="Data" sheetId="5" r:id="rId3"/>
-    <x:sheet name="CaptionData" sheetId="7" r:id="rId4"/>
-    <x:sheet name="TranslationData" sheetId="8" state="hidden" r:id="rId5"/>
-  </x:sheets>
-  <x:definedNames>
-    <x:definedName name="ReportMetadata.AboutThisReportText" comment="Use this function to get the About This Report Text from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("About This Report Text",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportMetadata.AboutThisReportTitle" comment="Use this function to get the About This Report Title from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("About This Report Title",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportMetadata.ExtensionID" comment="Use this function to get the Extension ID from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension ID",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportMetadata.ExtensionName" comment="Use this function to get the Extension Name from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Name",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportMetadata.ExtensionPublisher" comment="Use this function to get the Extension Publisher from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Publisher",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportMetadata.ExtensionVersion" comment="Use this function to get the Extension Version from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Version",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportMetadata.ObjectID" comment="Use this function to get the Object ID from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object ID",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportMetadata.ObjectName" comment="Use this function to get the Object Name from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object Name",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportMetadata.ReportHelpLink" comment="Use this function to get the Report help link from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Report help link",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.CompanyDisplayName" comment="Use this function to get the Company display name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company display name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.CompanyId" comment="Use this function to get the Company Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.CompanyName" comment="Use this function to get the Company name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.Date" comment="Use this function to get the Date from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Date",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.EnvironmentName" comment="Use this function to get the Environment name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Environment name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.EnvironmentType" comment="Use this function to get the Environment type from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Environment type",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.FormatRegion" comment="Use this function to get the Format Region from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Format Region",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.Language" comment="Use this function to get the Language from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Language",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.LayoutCaption" comment="Use this function to get the Layout caption from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout caption",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.LayoutId" comment="Use this function to get the Layout id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.LayoutName" comment="Use this function to get the Layout name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.TenantEntraId" comment="Use this function to get the Tenant Entra Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Tenant Entra Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.TenantId" comment="Use this function to get the Tenant Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Tenant Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-    <x:definedName name="ReportRequest.UserName" comment="Use this function to get the User name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("User name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
-  </x:definedNames>
-  <x:calcPr calcId="191029" forceFullCalc="1"/>
-  <x:pivotCaches>
-    <x:pivotCache cacheId="36" r:id="rId6"/>
-  </x:pivotCaches>
-  <x:extLst>
-    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E65C7BD-5794-4089-B067-9FBE2A4B43C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Aggregated Metadata" sheetId="4" r:id="rId1"/>
+    <sheet name="Master Report" sheetId="6" r:id="rId2"/>
+    <sheet name="Data" sheetId="5" r:id="rId3"/>
+    <sheet name="CaptionData" sheetId="7" r:id="rId4"/>
+    <sheet name="TranslationData" sheetId="8" state="hidden" r:id="rId5"/>
+  </sheets>
+  <definedNames>
+    <definedName name="ReportMetadata.AboutThisReportText" comment="Use this function to get the About This Report Text from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("About This Report Text",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
+    <definedName name="ReportMetadata.AboutThisReportTitle" comment="Use this function to get the About This Report Title from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("About This Report Title",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
+    <definedName name="ReportMetadata.ExtensionID" comment="Use this function to get the Extension ID from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension ID",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
+    <definedName name="ReportMetadata.ExtensionName" comment="Use this function to get the Extension Name from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Name",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
+    <definedName name="ReportMetadata.ExtensionPublisher" comment="Use this function to get the Extension Publisher from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Publisher",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
+    <definedName name="ReportMetadata.ExtensionVersion" comment="Use this function to get the Extension Version from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Version",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
+    <definedName name="ReportMetadata.ObjectID" comment="Use this function to get the Object ID from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object ID",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
+    <definedName name="ReportMetadata.ObjectName" comment="Use this function to get the Object Name from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object Name",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
+    <definedName name="ReportMetadata.ReportHelpLink" comment="Use this function to get the Report help link from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Report help link",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.CompanyDisplayName" comment="Use this function to get the Company display name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company display name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.CompanyId" comment="Use this function to get the Company Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.CompanyName" comment="Use this function to get the Company name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.Date" comment="Use this function to get the Date from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Date",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.EnvironmentName" comment="Use this function to get the Environment name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Environment name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.EnvironmentType" comment="Use this function to get the Environment type from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Environment type",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.FormatRegion" comment="Use this function to get the Format Region from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Format Region",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.Language" comment="Use this function to get the Language from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Language",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.LayoutCaption" comment="Use this function to get the Layout caption from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout caption",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.LayoutId" comment="Use this function to get the Layout id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.LayoutName" comment="Use this function to get the Layout name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.TenantEntraId" comment="Use this function to get the Tenant Entra Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Tenant Entra Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.TenantId" comment="Use this function to get the Tenant Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Tenant Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+    <definedName name="ReportRequest.UserName" comment="Use this function to get the User name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("User name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
+  </definedNames>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <pivotCaches>
+    <pivotCache cacheId="41" r:id="rId6"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -59,9 +59,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -332,11 +332,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00#"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -496,7 +497,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -523,11 +524,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" pivotButton="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -544,123 +561,54 @@
     <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" pivotButton="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="127">
+  <dxfs count="114">
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="169" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="170" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1047,105 +995,190 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFC0C0C0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="-0.249977111117893"/>
+        <patternFill>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="-0.249977111117893"/>
+        <patternFill>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="-0.249977111117893"/>
+        <patternFill>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="-0.249977111117893"/>
+        <patternFill>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="-0.249977111117893"/>
+        <patternFill>
+          <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <border>
@@ -1324,154 +1357,87 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249977111117893"/>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249977111117893"/>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249977111117893"/>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249977111117893"/>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.249977111117893"/>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC0C0C0"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -1587,7 +1553,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Rom IT" refreshedDate="45791.579149537036" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="2" xr:uid="{D6225502-A32D-4057-AB8B-D255A042695C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Rom IT" refreshedDate="45881.445685416664" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="2" xr:uid="{D6225502-A32D-4057-AB8B-D255A042695C}">
   <cacheSource type="worksheet">
     <worksheetSource name="Data"/>
   </cacheSource>
@@ -1770,7 +1736,7 @@
     <cacheField name="MARGIN" numFmtId="0" formula="IFERROR(PROFIT/SALE, 0)" databaseField="0"/>
     <cacheField name="SALE EFFICIENCY" numFmtId="0" formula="IFERROR(SALE/AREASIZE, 0)" databaseField="0"/>
     <cacheField name="PROFIT EFFICIENCY" numFmtId="0" formula="IFERROR(PROFIT/AREASIZE, 0)" databaseField="0"/>
-    <cacheField name="MGP Collection" numFmtId="0" formula="IF(MGP&gt;PROFIT,PROFIT -MGP,0)" databaseField="0"/>
+    <cacheField name="MGP Collection" numFmtId="0" formula="IF(MGP&gt;PROFIT,PROFIT-MGP,0)" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -1820,7 +1786,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{663BFB4A-5897-41D0-8ED5-8890534358BB}" name="PivotTable1" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" rowHeaderCaption="Divisions">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{663BFB4A-5897-41D0-8ED5-8890534358BB}" name="PivotTable1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" rowHeaderCaption="Divisions">
   <location ref="A6:S13" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -2084,8 +2050,8 @@
     <dataField name="Monthly MGP by CA " fld="14" baseField="6" baseItem="0" numFmtId="165"/>
     <dataField name="MGP Collection " fld="18" baseField="6" baseItem="0" numFmtId="165"/>
   </dataFields>
-  <formats count="53">
-    <format dxfId="75">
+  <formats count="54">
+    <format dxfId="109">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2097,7 +2063,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="108">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2109,7 +2075,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="107">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="4">
@@ -2124,7 +2090,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="106">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="4">
@@ -2139,7 +2105,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="105">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="4">
@@ -2154,7 +2120,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="104">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="4">
@@ -2169,21 +2135,21 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="101">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2195,7 +2161,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="100">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2207,7 +2173,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="99">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2219,10 +2185,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="98">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="97">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2234,7 +2200,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="96">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2246,7 +2212,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="89">
+    <format dxfId="95">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2258,7 +2224,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="94">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2270,20 +2236,20 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="91">
+    <format dxfId="93">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" offset="A2" fieldPosition="0"/>
     </format>
     <format dxfId="92">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="94">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="7">
@@ -2301,7 +2267,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="7">
@@ -2319,29 +2285,29 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="96">
+    <format dxfId="88">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="87">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="98">
+    <format dxfId="86">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="99">
+    <format dxfId="85">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="84">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="101">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="102">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="7">
@@ -2359,7 +2325,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="103">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="7">
@@ -2377,29 +2343,29 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="104">
+    <format dxfId="80">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="79">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="106">
+    <format dxfId="78">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="1"/>
     </format>
-    <format dxfId="107">
+    <format dxfId="77">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="108">
+    <format dxfId="76">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="109">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="110">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="7">
@@ -2417,7 +2383,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="111">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="7">
@@ -2435,20 +2401,20 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="112">
+    <format dxfId="72">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" offset="A2" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="71">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="114">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="115">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="7">
@@ -2466,7 +2432,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="116">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="7">
@@ -2484,20 +2450,20 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="117">
+    <format dxfId="67">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" offset="A2" fieldPosition="0"/>
     </format>
-    <format dxfId="118">
+    <format dxfId="66">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="119">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="7">
@@ -2515,7 +2481,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="121">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="7">
@@ -2533,7 +2499,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="62">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2545,7 +2511,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="61">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2557,7 +2523,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="60">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2569,7 +2535,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="59">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2581,7 +2547,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="58">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
@@ -2594,12 +2560,24 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="57">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="2" selected="0">
             <x v="5"/>
             <x v="6"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
           </reference>
           <reference field="12" count="1" selected="0">
             <x v="3"/>
@@ -2621,7 +2599,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}" name="ReportMetadataValues" displayName="ReportMetadataValues" ref="A1:B10" totalsRowShown="0" headerRowDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}" name="ReportMetadataValues" displayName="ReportMetadataValues" ref="A1:B10" totalsRowShown="0" headerRowDxfId="113">
   <autoFilter ref="A1:B10" xr:uid="{134EB915-8B19-4838-BDED-CECBACACF4F9}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Report Property"/>
@@ -2632,7 +2610,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}" name="ReportRequestValues" displayName="ReportRequestValues" ref="D1:E10" totalsRowShown="0" headerRowDxfId="125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}" name="ReportRequestValues" displayName="ReportRequestValues" ref="D1:E10" totalsRowShown="0" headerRowDxfId="112">
   <autoFilter ref="D1:E10" xr:uid="{1DFF5EE2-2A86-40DE-9DFD-1E96553323F6}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Request Property"/>
@@ -2643,7 +2621,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}" name="ReportRequestPageValues" displayName="ReportRequestPageValues" ref="G1:H3" totalsRowShown="0" headerRowDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}" name="ReportRequestPageValues" displayName="ReportRequestPageValues" ref="G1:H3" totalsRowShown="0" headerRowDxfId="111">
   <autoFilter ref="G1:H3" xr:uid="{8D3A40BA-47FA-41F3-82A4-C5BD4909C0B4}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Request Page Option"/>
@@ -2654,7 +2632,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}" name="ReportFilterValues" displayName="ReportFilterValues" ref="J1:K2" totalsRowShown="0" headerRowDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}" name="ReportFilterValues" displayName="ReportFilterValues" ref="J1:K2" totalsRowShown="0" headerRowDxfId="110">
   <autoFilter ref="J1:K2" xr:uid="{D269260C-C433-478B-84A3-3CB73C333872}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Filter"/>
@@ -2665,27 +2643,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Data" displayName="Data" ref="A1:O3" totalsRowShown="0" headerRowDxfId="122" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
-  <x:autoFilter ref="A1:O3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <x:tableColumns count="15">
-    <x:tableColumn id="1" name="USERID" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="2" name="COMPANYNAME" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="3" name="DatePrint" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="4" name="StartDateFilter" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="5" name="EndDateFilter" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="6" name="MonthFilter" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="7" name="Division" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="8" name="Class" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="9" name="Department" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="10" name="AREASIZE" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="11" name="SALE" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="12" name="PROFIT" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="13" name="Periods" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="14" name="Brand" xr3:uid="{095B4ABD-FFED-4A1B-8275-494F7352A600}"/>
-    <x:tableColumn id="15" name="MGP" xr3:uid="{D87EABF0-2EA7-4C7A-A8A8-5C5937DD8ED0}"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" name="Data" displayName="Data" ref="A1:O3" totalsRowShown="0" headerRowDxfId="56">
+  <autoFilter ref="A1:O3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="USERID"/>
+    <tableColumn id="2" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="COMPANYNAME"/>
+    <tableColumn id="3" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="DatePrint"/>
+    <tableColumn id="4" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="StartDateFilter"/>
+    <tableColumn id="5" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="EndDateFilter"/>
+    <tableColumn id="6" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="MonthFilter"/>
+    <tableColumn id="7" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Division"/>
+    <tableColumn id="8" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Class"/>
+    <tableColumn id="9" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Department"/>
+    <tableColumn id="10" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="AREASIZE"/>
+    <tableColumn id="11" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="SALE"/>
+    <tableColumn id="12" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PROFIT"/>
+    <tableColumn id="13" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Periods"/>
+    <tableColumn id="14" xr3:uid="{095B4ABD-FFED-4A1B-8275-494F7352A600}" name="Brand"/>
+    <tableColumn id="15" xr3:uid="{D87EABF0-2EA7-4C7A-A8A8-5C5937DD8ED0}" name="MGP"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3393,7 +3371,7 @@
   <dimension ref="A1:W1161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3404,19 +3382,19 @@
     <col min="4" max="4" width="11.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
@@ -3424,90 +3402,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="18" t="str">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="38" t="str">
         <f>Data!B2</f>
         <v>TKV</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="19" t="str">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="39" t="str">
         <f>"Print Date: "&amp;Data!C2</f>
         <v>Print Date: 14/05/2025</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="19" t="str">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="39" t="str">
         <f>"Target Date: "&amp;Data!D2&amp;"-"&amp;Data!E2</f>
         <v>Target Date: 01/05/2025-30/05/2025</v>
       </c>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
@@ -3516,98 +3494,98 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="44" t="s">
+      <c r="N5" s="30"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="23" t="s">
+      <c r="Q5" s="36"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24" t="s">
+      <c r="U5" s="33"/>
+      <c r="V5" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="W5" s="24"/>
+      <c r="W5" s="34"/>
     </row>
     <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
       <c r="T6" s="15"/>
       <c r="U6" s="14"/>
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="30" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="31" t="s">
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="U7" s="34" t="s">
+      <c r="U7" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="V7" s="32" t="s">
+      <c r="V7" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="32" t="s">
+      <c r="W7" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="42" t="s">
         <v>64</v>
       </c>
       <c r="B8" t="s">
@@ -3625,16 +3603,16 @@
       <c r="F8" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" t="s">
         <v>86</v>
       </c>
       <c r="K8" t="s">
@@ -3652,28 +3630,28 @@
       <c r="O8" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="39" t="s">
+      <c r="P8" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="Q8" s="39" t="s">
+      <c r="Q8" t="s">
         <v>66</v>
       </c>
-      <c r="R8" s="39" t="s">
+      <c r="R8" t="s">
         <v>85</v>
       </c>
       <c r="S8" t="s">
         <v>86</v>
       </c>
-      <c r="T8" s="31"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="18">
         <v>0.36212921029817591</v>
       </c>
       <c r="C9" s="4">
@@ -3688,19 +3666,19 @@
       <c r="F9" s="4">
         <v>0.19036132101619441</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="26">
         <v>525106.75729708117</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="26">
         <v>99960.015993602559</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="26">
         <v>1484000080</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="26">
         <v>-1459000080</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="18">
         <v>0.63787078970182409</v>
       </c>
       <c r="L9" s="4">
@@ -3715,16 +3693,16 @@
       <c r="O9" s="4">
         <v>0.13431089546844929</v>
       </c>
-      <c r="P9" s="39">
+      <c r="P9" s="47">
         <v>288038.1512102799</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="26">
         <v>38686.662018129296</v>
       </c>
-      <c r="R9" s="39">
+      <c r="R9" s="26">
         <v>2484000080</v>
       </c>
-      <c r="S9" s="40">
+      <c r="S9" s="26">
         <v>-2452930048</v>
       </c>
       <c r="T9" s="11">
@@ -3748,7 +3726,7 @@
       <c r="A10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="18">
         <v>0.36212921029817591</v>
       </c>
       <c r="C10" s="4">
@@ -3763,19 +3741,19 @@
       <c r="F10" s="4">
         <v>0.19036132101619441</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="26">
         <v>525106.75729708117</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="26">
         <v>99960.015993602559</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="26">
         <v>1484000080</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="26">
         <v>-1459000080</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="18">
         <v>0.63787078970182409</v>
       </c>
       <c r="L10" s="4">
@@ -3790,32 +3768,32 @@
       <c r="O10" s="4">
         <v>0.13431089546844929</v>
       </c>
-      <c r="P10" s="39">
+      <c r="P10" s="47">
         <v>288038.1512102799</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="26">
         <v>38686.662018129296</v>
       </c>
-      <c r="R10" s="39">
+      <c r="R10" s="26">
         <v>2484000080</v>
       </c>
-      <c r="S10" s="40">
+      <c r="S10" s="26">
         <v>-2452930048</v>
       </c>
       <c r="T10" s="11">
-        <f t="shared" ref="T10:T73" si="0">L10-C10</f>
+        <f t="shared" ref="T10:T13" si="0">L10-C10</f>
         <v>553.02</v>
       </c>
       <c r="U10" s="8">
-        <f t="shared" ref="U10:U73" si="1">IFERROR(L10/C10, 0)</f>
+        <f t="shared" ref="U10:U13" si="1">IFERROR(L10/C10, 0)</f>
         <v>3.2111955217912835</v>
       </c>
       <c r="V10" s="8">
-        <f t="shared" ref="V10:V73" si="2">IFERROR(M10/D10, 0)</f>
+        <f t="shared" ref="V10:V13" si="2">IFERROR(M10/D10, 0)</f>
         <v>1.7614452840647776</v>
       </c>
       <c r="W10" s="8">
-        <f t="shared" ref="W10:W73" si="3">IFERROR(N10/E10, 0)</f>
+        <f t="shared" ref="W10:W13" si="3">IFERROR(N10/E10, 0)</f>
         <v>1.2428012799999999</v>
       </c>
     </row>
@@ -3823,7 +3801,7 @@
       <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="18">
         <v>0.36212921029817591</v>
       </c>
       <c r="C11" s="4">
@@ -3838,19 +3816,19 @@
       <c r="F11" s="4">
         <v>0.19036132101619441</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="26">
         <v>525106.75729708117</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="26">
         <v>99960.015993602559</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="26">
         <v>1484000080</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="26">
         <v>-1459000080</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="18">
         <v>0.63787078970182409</v>
       </c>
       <c r="L11" s="4">
@@ -3865,16 +3843,16 @@
       <c r="O11" s="4">
         <v>0.13431089546844929</v>
       </c>
-      <c r="P11" s="39">
+      <c r="P11" s="47">
         <v>288038.1512102799</v>
       </c>
-      <c r="Q11" s="39">
+      <c r="Q11" s="26">
         <v>38686.662018129296</v>
       </c>
-      <c r="R11" s="39">
+      <c r="R11" s="26">
         <v>2484000080</v>
       </c>
-      <c r="S11" s="40">
+      <c r="S11" s="26">
         <v>-2452930048</v>
       </c>
       <c r="T11" s="11">
@@ -3895,10 +3873,10 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="18">
         <v>0.36212921029817591</v>
       </c>
       <c r="C12" s="4">
@@ -3913,19 +3891,19 @@
       <c r="F12" s="4">
         <v>0.19036132101619441</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="26">
         <v>525106.75729708117</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="26">
         <v>99960.015993602559</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="26">
         <v>1484000080</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="26">
         <v>-1459000080</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="18">
         <v>0.63787078970182409</v>
       </c>
       <c r="L12" s="4">
@@ -3940,16 +3918,16 @@
       <c r="O12" s="4">
         <v>0.13431089546844929</v>
       </c>
-      <c r="P12" s="39">
+      <c r="P12" s="47">
         <v>288038.1512102799</v>
       </c>
-      <c r="Q12" s="39">
+      <c r="Q12" s="26">
         <v>38686.662018129296</v>
       </c>
-      <c r="R12" s="39">
+      <c r="R12" s="26">
         <v>2484000080</v>
       </c>
-      <c r="S12" s="40">
+      <c r="S12" s="26">
         <v>-2452930048</v>
       </c>
       <c r="T12" s="11">
@@ -3973,7 +3951,7 @@
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="18">
         <v>0.36212921029817591</v>
       </c>
       <c r="C13" s="4">
@@ -3988,19 +3966,19 @@
       <c r="F13" s="4">
         <v>0.19036132101619441</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="26">
         <v>525106.75729708117</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="26">
         <v>99960.015993602559</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="26">
         <v>1484000080</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="26">
         <v>-1459000080</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="18">
         <v>0.63787078970182409</v>
       </c>
       <c r="L13" s="4">
@@ -4015,16 +3993,16 @@
       <c r="O13" s="4">
         <v>0.13431089546844929</v>
       </c>
-      <c r="P13" s="39">
+      <c r="P13" s="47">
         <v>288038.1512102799</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q13" s="26">
         <v>38686.662018129296</v>
       </c>
-      <c r="R13" s="39">
+      <c r="R13" s="26">
         <v>2484000080</v>
       </c>
-      <c r="S13" s="40">
+      <c r="S13" s="26">
         <v>-2452930048</v>
       </c>
       <c r="T13" s="11">
@@ -25638,12 +25616,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A1:O3"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="W7:W8"/>
     <mergeCell ref="T1:W1"/>
@@ -25651,6 +25623,12 @@
     <mergeCell ref="T3:W3"/>
     <mergeCell ref="T7:T8"/>
     <mergeCell ref="U7:U8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A1:O3"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/.vscode/ReportLayouts/Excel/Rep.70029.EfficiencyReportExcel.xlsx
+++ b/.vscode/ReportLayouts/Excel/Rep.70029.EfficiencyReportExcel.xlsx
@@ -1,55 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <x:workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Radiant\SourceCode\WP-Report\.vscode\ReportLayouts\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0246A788-BA6D-4D38-9FA9-D4C04B3A44C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Aggregated Metadata" sheetId="4" r:id="rId1"/>
-    <sheet name="Master Report" sheetId="6" r:id="rId2"/>
-    <sheet name="Data" sheetId="5" r:id="rId3"/>
-    <sheet name="CaptionData" sheetId="7" r:id="rId4"/>
-    <sheet name="TranslationData" sheetId="8" state="hidden" r:id="rId5"/>
-  </sheets>
-  <definedNames>
-    <definedName name="ReportMetadata.AboutThisReportText" comment="Use this function to get the About This Report Text from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("About This Report Text",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
-    <definedName name="ReportMetadata.AboutThisReportTitle" comment="Use this function to get the About This Report Title from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("About This Report Title",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
-    <definedName name="ReportMetadata.ExtensionID" comment="Use this function to get the Extension ID from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension ID",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
-    <definedName name="ReportMetadata.ExtensionName" comment="Use this function to get the Extension Name from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Name",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
-    <definedName name="ReportMetadata.ExtensionPublisher" comment="Use this function to get the Extension Publisher from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Publisher",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
-    <definedName name="ReportMetadata.ExtensionVersion" comment="Use this function to get the Extension Version from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Version",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
-    <definedName name="ReportMetadata.ObjectID" comment="Use this function to get the Object ID from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object ID",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
-    <definedName name="ReportMetadata.ObjectName" comment="Use this function to get the Object Name from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object Name",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
-    <definedName name="ReportMetadata.ReportHelpLink" comment="Use this function to get the Report help link from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Report help link",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</definedName>
-    <definedName name="ReportRequest.CompanyDisplayName" comment="Use this function to get the Company display name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company display name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
-    <definedName name="ReportRequest.CompanyId" comment="Use this function to get the Company Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
-    <definedName name="ReportRequest.CompanyName" comment="Use this function to get the Company name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
-    <definedName name="ReportRequest.Date" comment="Use this function to get the Date from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Date",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
-    <definedName name="ReportRequest.EnvironmentName" comment="Use this function to get the Environment name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Environment name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
-    <definedName name="ReportRequest.EnvironmentType" comment="Use this function to get the Environment type from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Environment type",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
-    <definedName name="ReportRequest.FormatRegion" comment="Use this function to get the Format Region from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Format Region",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
-    <definedName name="ReportRequest.Language" comment="Use this function to get the Language from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Language",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
-    <definedName name="ReportRequest.LayoutCaption" comment="Use this function to get the Layout caption from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout caption",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
-    <definedName name="ReportRequest.LayoutId" comment="Use this function to get the Layout id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
-    <definedName name="ReportRequest.LayoutName" comment="Use this function to get the Layout name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
-    <definedName name="ReportRequest.TenantEntraId" comment="Use this function to get the Tenant Entra Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Tenant Entra Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
-    <definedName name="ReportRequest.TenantId" comment="Use this function to get the Tenant Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Tenant Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
-    <definedName name="ReportRequest.UserName" comment="Use this function to get the User name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("User name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</definedName>
-  </definedNames>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId6"/>
-  </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+  <x:bookViews>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Aggregated Metadata" sheetId="4" r:id="rId1"/>
+    <x:sheet name="Master Report" sheetId="6" r:id="rId2"/>
+    <x:sheet name="Data" sheetId="5" r:id="rId3"/>
+    <x:sheet name="CaptionData" sheetId="7" r:id="rId4"/>
+    <x:sheet name="TranslationData" sheetId="8" state="hidden" r:id="rId5"/>
+  </x:sheets>
+  <x:definedNames>
+    <x:definedName name="ReportMetadata.AboutThisReportText" comment="Use this function to get the About This Report Text from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("About This Report Text",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportMetadata.AboutThisReportTitle" comment="Use this function to get the About This Report Title from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("About This Report Title",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportMetadata.ExtensionID" comment="Use this function to get the Extension ID from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension ID",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportMetadata.ExtensionName" comment="Use this function to get the Extension Name from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Name",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportMetadata.ExtensionPublisher" comment="Use this function to get the Extension Publisher from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Publisher",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportMetadata.ExtensionVersion" comment="Use this function to get the Extension Version from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Extension Version",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportMetadata.ObjectID" comment="Use this function to get the Object ID from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object ID",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportMetadata.ObjectName" comment="Use this function to get the Object Name from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Object Name",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportMetadata.ReportHelpLink" comment="Use this function to get the Report help link from the ReportMetadataValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Report help link",ReportMetadataValues[[#All],[Report Property]],ReportMetadataValues[[#All],[Report Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.CompanyDisplayName" comment="Use this function to get the Company display name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company display name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.CompanyId" comment="Use this function to get the Company Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.CompanyName" comment="Use this function to get the Company name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Company name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.Date" comment="Use this function to get the Date from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Date",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.EnvironmentName" comment="Use this function to get the Environment name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Environment name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.EnvironmentType" comment="Use this function to get the Environment type from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Environment type",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.FormatRegion" comment="Use this function to get the Format Region from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Format Region",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.Language" comment="Use this function to get the Language from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Language",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.LayoutCaption" comment="Use this function to get the Layout caption from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout caption",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.LayoutId" comment="Use this function to get the Layout id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.LayoutName" comment="Use this function to get the Layout name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Layout name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.TenantEntraId" comment="Use this function to get the Tenant Entra Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Tenant Entra Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.TenantId" comment="Use this function to get the Tenant Id from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("Tenant Id",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+    <x:definedName name="ReportRequest.UserName" comment="Use this function to get the User name from the ReportRequestValues table in the Aggregated Metadata worksheet">_xlfn.XLOOKUP("User name",ReportRequestValues[[#All],[Request Property]],ReportRequestValues[[#All],[Request Property Value]],"none",)</x:definedName>
+  </x:definedNames>
+  <x:calcPr calcId="191029" forceFullCalc="1"/>
+  <x:pivotCaches>
+    <x:pivotCache cacheId="20" r:id="rId6"/>
+  </x:pivotCaches>
+  <x:extLst>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
@@ -59,9 +59,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2698,27 +2698,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" name="Data" displayName="Data" ref="A1:O3" totalsRowShown="0" headerRowDxfId="62">
-  <autoFilter ref="A1:O3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="USERID"/>
-    <tableColumn id="2" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="COMPANYNAME"/>
-    <tableColumn id="3" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="DatePrint"/>
-    <tableColumn id="4" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="StartDateFilter"/>
-    <tableColumn id="5" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="EndDateFilter"/>
-    <tableColumn id="6" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="MonthFilter"/>
-    <tableColumn id="7" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Division"/>
-    <tableColumn id="8" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Class"/>
-    <tableColumn id="9" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Department"/>
-    <tableColumn id="10" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="AREASIZE"/>
-    <tableColumn id="11" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="SALE"/>
-    <tableColumn id="12" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="PROFIT"/>
-    <tableColumn id="13" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}" name="Periods"/>
-    <tableColumn id="14" xr3:uid="{095B4ABD-FFED-4A1B-8275-494F7352A600}" name="Brand"/>
-    <tableColumn id="15" xr3:uid="{D87EABF0-2EA7-4C7A-A8A8-5C5937DD8ED0}" name="MGP"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Data" displayName="Data" ref="A1:O3" totalsRowShown="0" headerRowDxfId="62" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:O3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <x:tableColumns count="15">
+    <x:tableColumn id="1" name="USERID" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="2" name="COMPANYNAME" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="3" name="DatePrint" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="4" name="StartDateFilter" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="5" name="EndDateFilter" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="6" name="MonthFilter" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="7" name="Division" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="8" name="Class" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="9" name="Department" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="10" name="AREASIZE" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="11" name="SALE" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="12" name="PROFIT" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="13" name="Periods" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="14" name="Brand" xr3:uid="{095B4ABD-FFED-4A1B-8275-494F7352A600}"/>
+    <x:tableColumn id="15" name="MGP" xr3:uid="{D87EABF0-2EA7-4C7A-A8A8-5C5937DD8ED0}"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
